--- a/proy_prueba/proy_files/DB_2017.xlsx
+++ b/proy_prueba/proy_files/DB_2017.xlsx
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4585,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB10B6C-F9E3-463C-8262-59705ECEB05D}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12333,10 +12333,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="D2" s="1">
         <v>5000</v>
@@ -12364,7 +12364,7 @@
         <v>2.5</v>
       </c>
       <c r="C4" s="1">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="D4" s="1">
         <v>5000</v>

--- a/proy_prueba/proy_files/DB_2017.xlsx
+++ b/proy_prueba/proy_files/DB_2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo\Python_Proyectos\proy_prueba\proy_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alevargas/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="115">
   <si>
     <t>Nombre</t>
   </si>
@@ -466,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -607,6 +607,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -615,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,6 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -999,21 +1013,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>82</v>
       </c>
@@ -1072,7 +1086,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>83</v>
       </c>
@@ -1102,7 +1116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>84</v>
       </c>
@@ -1132,7 +1146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>85</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>86</v>
       </c>
@@ -1192,7 +1206,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>87</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>88</v>
       </c>
@@ -1252,7 +1266,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>96</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>89</v>
       </c>
@@ -1312,7 +1326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>90</v>
       </c>
@@ -1342,7 +1356,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>91</v>
       </c>
@@ -1372,7 +1386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>94</v>
       </c>
@@ -1402,7 +1416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>114</v>
       </c>
@@ -1431,7 +1445,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -1442,7 +1456,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -1453,7 +1467,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -1471,19 +1485,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="34" t="s">
@@ -1495,7 +1509,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
@@ -1507,7 +1521,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -1585,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -1637,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -1741,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1767,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -1819,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1871,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1920,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -1975,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -2001,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2079,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -2105,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -2131,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -2157,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -2183,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
@@ -2235,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -2261,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -2287,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
@@ -2339,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -2365,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -2417,15 +2431,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>30</v>
+    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C38" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="18">
         <v>1</v>
@@ -2437,15 +2451,15 @@
         <v>1</v>
       </c>
       <c r="G38" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>31</v>
@@ -2469,9 +2483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>31</v>
@@ -2495,9 +2509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>31</v>
@@ -2512,18 +2526,18 @@
         <v>1</v>
       </c>
       <c r="F41" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>31</v>
@@ -2538,18 +2552,18 @@
         <v>1</v>
       </c>
       <c r="F42" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>31</v>
@@ -2573,9 +2587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>31</v>
@@ -2590,70 +2604,70 @@
         <v>1</v>
       </c>
       <c r="F44" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>79</v>
+    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C46" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>38</v>
@@ -2661,51 +2675,51 @@
       <c r="C47" s="17">
         <v>0</v>
       </c>
-      <c r="D47" s="18">
-        <v>1</v>
-      </c>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
-        <v>1</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1</v>
+      <c r="D47" s="17">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="17">
-        <v>0</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="18">
+        <v>1</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>38</v>
@@ -2729,9 +2743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>42</v>
+    <row r="50" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>38</v>
@@ -2755,9 +2769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>43</v>
+    <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>38</v>
@@ -2781,9 +2795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>38</v>
@@ -2807,9 +2821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>38</v>
@@ -2817,129 +2831,129 @@
       <c r="C53" s="17">
         <v>1</v>
       </c>
-      <c r="D53" s="18">
-        <v>1</v>
-      </c>
-      <c r="E53" s="18">
-        <v>1</v>
-      </c>
-      <c r="F53" s="18">
-        <v>1</v>
-      </c>
-      <c r="G53" s="18">
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="17">
+        <v>1</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1</v>
+      </c>
+      <c r="G53" s="17">
         <v>1</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="17">
-        <v>0</v>
-      </c>
-      <c r="D54" s="17">
-        <v>0</v>
-      </c>
-      <c r="E54" s="17">
-        <v>0</v>
-      </c>
-      <c r="F54" s="17">
-        <v>0</v>
-      </c>
-      <c r="G54" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="17">
-        <v>1</v>
-      </c>
-      <c r="D55" s="18">
-        <v>1</v>
-      </c>
-      <c r="E55" s="18">
-        <v>1</v>
-      </c>
-      <c r="F55" s="18">
-        <v>1</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17">
+        <v>0</v>
+      </c>
+      <c r="G55" s="17">
+        <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="17">
-        <v>0</v>
-      </c>
-      <c r="D57" s="17">
-        <v>0</v>
-      </c>
-      <c r="E57" s="17">
-        <v>0</v>
-      </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="18">
+        <v>1</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>38</v>
@@ -2960,58 +2974,6 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="17">
-        <v>1</v>
-      </c>
-      <c r="D59" s="18">
-        <v>1</v>
-      </c>
-      <c r="E59" s="18">
-        <v>1</v>
-      </c>
-      <c r="F59" s="18">
-        <v>1</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="17">
-        <v>0</v>
-      </c>
-      <c r="D60" s="18">
-        <v>0</v>
-      </c>
-      <c r="E60" s="18">
-        <v>0</v>
-      </c>
-      <c r="F60" s="18">
-        <v>0</v>
-      </c>
-      <c r="G60" s="18">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3033,13 +2995,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="34" t="s">
@@ -3051,7 +3013,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
@@ -3063,7 +3025,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -3141,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3167,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -3193,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3219,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3245,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -3271,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -3297,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -3349,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -3375,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3401,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3427,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3453,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -3479,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -3505,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -3531,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -3557,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -3583,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -3609,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -3635,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -3661,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -3687,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -3739,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -3765,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
@@ -3791,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -3817,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -3843,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -3869,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
@@ -3895,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -3921,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -3947,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -3973,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
@@ -3999,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -4025,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
@@ -4051,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
@@ -4077,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -4103,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -4129,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
@@ -4155,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>78</v>
       </c>
@@ -4181,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
@@ -4207,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
@@ -4233,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
@@ -4259,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
@@ -4285,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
@@ -4311,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>43</v>
       </c>
@@ -4337,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -4363,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
@@ -4389,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>45</v>
       </c>
@@ -4415,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>46</v>
       </c>
@@ -4441,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>47</v>
       </c>
@@ -4467,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>48</v>
       </c>
@@ -4493,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>49</v>
       </c>
@@ -4519,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>81</v>
       </c>
@@ -4545,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>50</v>
       </c>
@@ -4589,13 +4551,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="34" t="s">
@@ -4607,7 +4569,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="35" t="s">
@@ -4619,7 +4581,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4645,7 +4607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4671,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -4697,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -4749,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -4775,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4801,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -4827,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -4853,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -4879,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -4905,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -4931,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -4957,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -4983,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -5009,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -5035,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -5061,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -5087,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -5113,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -5139,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -5165,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -5191,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -5217,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -5243,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -5269,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5295,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -5321,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
@@ -5347,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -5373,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -5399,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -5425,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
@@ -5451,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -5477,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -5503,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -5529,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
@@ -5555,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -5581,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
@@ -5607,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
@@ -5633,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -5659,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -5685,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
@@ -5711,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>78</v>
       </c>
@@ -5737,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
@@ -5763,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
@@ -5789,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
@@ -5815,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
@@ -5841,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
@@ -5867,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>43</v>
       </c>
@@ -5893,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -5919,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
@@ -5945,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>45</v>
       </c>
@@ -5971,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>46</v>
       </c>
@@ -5997,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>47</v>
       </c>
@@ -6023,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>48</v>
       </c>
@@ -6049,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>49</v>
       </c>
@@ -6075,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>81</v>
       </c>
@@ -6101,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>50</v>
       </c>
@@ -6139,19 +6101,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1AF0-CFD2-4A71-A16C-6968066E001B}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:M60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38"/>
       <c r="B1" s="38"/>
       <c r="C1" s="36" t="s">
@@ -6161,7 +6123,7 @@
       <c r="E1" s="36"/>
       <c r="F1" s="37"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="36" t="s">
@@ -6171,7 +6133,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
@@ -6191,7 +6153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6211,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -6231,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -6251,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -6271,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -6291,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -6311,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -6331,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -6351,27 +6313,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -6379,39 +6341,39 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -6431,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -6451,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -6471,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -6485,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -6511,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -6531,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -6551,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6571,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -6591,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -6611,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -6631,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -6651,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -6671,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -6691,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -6711,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
@@ -6731,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -6751,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -6771,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -6791,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
@@ -6811,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -6831,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -6851,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -6871,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
@@ -6891,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -6911,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
@@ -6931,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
@@ -6951,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -6971,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -6991,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
@@ -7011,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>78</v>
       </c>
@@ -7031,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
@@ -7051,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
@@ -7071,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
@@ -7091,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
@@ -7111,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
@@ -7131,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>43</v>
       </c>
@@ -7151,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -7171,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
@@ -7191,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>45</v>
       </c>
@@ -7211,9 +7173,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>38</v>
@@ -7231,29 +7193,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>38</v>
@@ -7262,18 +7224,18 @@
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>38</v>
@@ -7285,49 +7247,29 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7349,13 +7291,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38"/>
       <c r="B1" s="38"/>
       <c r="C1" s="36" t="s">
@@ -7365,7 +7307,7 @@
       <c r="E1" s="36"/>
       <c r="F1" s="37"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="36" t="s">
@@ -7375,7 +7317,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
@@ -7395,7 +7337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -7415,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -7435,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -7455,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -7475,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -7495,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -7515,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -7535,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -7555,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -7575,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -7595,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -7615,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -7635,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -7655,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -7675,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -7695,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -7715,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -7735,7 +7677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -7755,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -7775,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -7795,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -7815,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -7835,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -7855,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -7875,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -7895,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -7915,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
@@ -7935,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -7955,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -7975,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -7995,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
@@ -8015,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -8035,7 +7977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -8055,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -8075,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
@@ -8095,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -8115,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
@@ -8135,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
@@ -8155,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -8175,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -8195,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
@@ -8215,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>78</v>
       </c>
@@ -8235,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
@@ -8255,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
@@ -8275,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
@@ -8295,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
@@ -8315,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
@@ -8335,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>43</v>
       </c>
@@ -8355,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -8375,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
@@ -8395,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>45</v>
       </c>
@@ -8415,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>46</v>
       </c>
@@ -8435,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>47</v>
       </c>
@@ -8455,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>48</v>
       </c>
@@ -8475,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>49</v>
       </c>
@@ -8495,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>81</v>
       </c>
@@ -8515,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>50</v>
       </c>
@@ -8553,28 +8495,28 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -8585,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8596,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -8607,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -8618,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -8629,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -8640,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -8651,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -8662,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -8673,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -8684,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -8695,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -8706,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -8717,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -8728,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -8739,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -8750,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -8761,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -8772,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -8783,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -8794,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -8805,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -8816,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -8827,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -8838,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -8849,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -8860,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -8871,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
@@ -8882,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -8893,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -8904,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -8915,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
@@ -8926,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -8937,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -8948,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -8959,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
@@ -8970,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -8981,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
@@ -8992,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
@@ -9003,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -9014,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -9025,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
@@ -9036,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>78</v>
       </c>
@@ -9047,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
@@ -9058,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
@@ -9069,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
@@ -9080,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
@@ -9091,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
@@ -9102,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>43</v>
       </c>
@@ -9113,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -9124,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
@@ -9135,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>45</v>
       </c>
@@ -9146,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>46</v>
       </c>
@@ -9157,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>47</v>
       </c>
@@ -9168,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>48</v>
       </c>
@@ -9179,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>49</v>
       </c>
@@ -9190,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>81</v>
       </c>
@@ -9201,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>50</v>
       </c>
@@ -9228,16 +9170,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -9257,7 +9199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>82</v>
       </c>
@@ -9275,7 +9217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>83</v>
       </c>
@@ -9293,7 +9235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>84</v>
       </c>
@@ -9311,7 +9253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>85</v>
       </c>
@@ -9329,7 +9271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>86</v>
       </c>
@@ -9347,7 +9289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>87</v>
       </c>
@@ -9365,7 +9307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>88</v>
       </c>
@@ -9383,7 +9325,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>96</v>
       </c>
@@ -9401,7 +9343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>89</v>
       </c>
@@ -9419,7 +9361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>90</v>
       </c>
@@ -9437,7 +9379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>91</v>
       </c>
@@ -9455,7 +9397,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>94</v>
       </c>
@@ -9473,7 +9415,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>107</v>
       </c>
@@ -9489,7 +9431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>103</v>
       </c>
@@ -9509,7 +9451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>104</v>
       </c>
@@ -9527,7 +9469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>105</v>
       </c>
@@ -9545,7 +9487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>106</v>
       </c>
@@ -9576,19 +9518,19 @@
       <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -9617,7 +9559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>82</v>
       </c>
@@ -9647,7 +9589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>83</v>
       </c>
@@ -9677,7 +9619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>84</v>
       </c>
@@ -9707,7 +9649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>85</v>
       </c>
@@ -9737,7 +9679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>86</v>
       </c>
@@ -9767,7 +9709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>87</v>
       </c>
@@ -9797,7 +9739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>88</v>
       </c>
@@ -9827,7 +9769,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>96</v>
       </c>
@@ -9857,7 +9799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>89</v>
       </c>
@@ -9887,7 +9829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>90</v>
       </c>
@@ -9917,7 +9859,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>91</v>
       </c>
@@ -9947,7 +9889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>94</v>
       </c>
@@ -9977,7 +9919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>114</v>
       </c>
@@ -10006,7 +9948,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
@@ -10017,7 +9959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>10</v>
       </c>
@@ -10034,7 +9976,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>20</v>
       </c>
@@ -10051,7 +9993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
@@ -10068,7 +10010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -10085,7 +10027,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>31</v>
       </c>
@@ -10112,20 +10054,20 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -10145,7 +10087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -10165,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -10185,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -10205,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
@@ -10225,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -10245,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -10265,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -10285,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -10305,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -10325,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -10345,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -10365,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -10385,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -10405,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -10425,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
@@ -10445,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -10465,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -10485,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
@@ -10505,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -10525,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>92</v>
       </c>
@@ -10545,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -10565,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -10585,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
@@ -10605,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -10625,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -10645,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -10665,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -10685,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
@@ -10705,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>75</v>
       </c>
@@ -10725,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>76</v>
       </c>
@@ -10745,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
@@ -10765,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>27</v>
       </c>
@@ -10785,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>28</v>
       </c>
@@ -10805,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>29</v>
       </c>
@@ -10825,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
@@ -10845,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
@@ -10865,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
@@ -10885,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
@@ -10905,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
@@ -10925,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>36</v>
       </c>
@@ -10945,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>37</v>
       </c>
@@ -10965,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
@@ -10985,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
@@ -11005,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>39</v>
       </c>
@@ -11025,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>40</v>
       </c>
@@ -11045,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>41</v>
       </c>
@@ -11065,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
@@ -11085,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>43</v>
       </c>
@@ -11105,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
@@ -11125,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>80</v>
       </c>
@@ -11145,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
@@ -11165,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
@@ -11185,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>47</v>
       </c>
@@ -11205,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>48</v>
       </c>
@@ -11225,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>49</v>
       </c>
@@ -11245,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
@@ -11265,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>50</v>
       </c>
@@ -11298,13 +11240,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -11312,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -11320,7 +11262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -11328,7 +11270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -11336,7 +11278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
@@ -11344,7 +11286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -11352,7 +11294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -11360,7 +11302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -11368,7 +11310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -11376,7 +11318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -11384,7 +11326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -11392,7 +11334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -11400,7 +11342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -11408,7 +11350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -11416,7 +11358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -11424,7 +11366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
@@ -11432,7 +11374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -11440,7 +11382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -11448,7 +11390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
@@ -11456,7 +11398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -11464,7 +11406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>92</v>
       </c>
@@ -11472,7 +11414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -11480,7 +11422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -11488,7 +11430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
@@ -11496,7 +11438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -11504,7 +11446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -11512,7 +11454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -11520,7 +11462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -11528,7 +11470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
@@ -11536,7 +11478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>75</v>
       </c>
@@ -11544,7 +11486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>76</v>
       </c>
@@ -11552,7 +11494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
@@ -11560,7 +11502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>27</v>
       </c>
@@ -11568,7 +11510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>28</v>
       </c>
@@ -11576,7 +11518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>29</v>
       </c>
@@ -11584,7 +11526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
@@ -11592,7 +11534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
@@ -11600,7 +11542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
@@ -11608,7 +11550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
@@ -11616,7 +11558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
@@ -11624,7 +11566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>36</v>
       </c>
@@ -11632,7 +11574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>37</v>
       </c>
@@ -11640,7 +11582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
@@ -11648,7 +11590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
@@ -11656,7 +11598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>39</v>
       </c>
@@ -11664,7 +11606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>40</v>
       </c>
@@ -11672,7 +11614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>41</v>
       </c>
@@ -11680,7 +11622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
@@ -11688,7 +11630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>43</v>
       </c>
@@ -11696,7 +11638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
@@ -11704,7 +11646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>80</v>
       </c>
@@ -11712,7 +11654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
@@ -11720,7 +11662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
@@ -11728,7 +11670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>47</v>
       </c>
@@ -11736,7 +11678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>48</v>
       </c>
@@ -11744,7 +11686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>49</v>
       </c>
@@ -11752,7 +11694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
@@ -11760,7 +11702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>50</v>
       </c>
@@ -11781,13 +11723,13 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -11798,7 +11740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -11812,7 +11754,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -11826,7 +11768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -11834,7 +11776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
@@ -11842,7 +11784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -11853,7 +11795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -11861,7 +11803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -11869,7 +11811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -11877,7 +11819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -11885,7 +11827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -11896,7 +11838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -11904,7 +11846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -11912,7 +11854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -11923,7 +11865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -11931,7 +11873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
@@ -11939,7 +11881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -11947,7 +11889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -11955,7 +11897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
@@ -11963,7 +11905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -11971,7 +11913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>92</v>
       </c>
@@ -11979,7 +11921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -11987,7 +11929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -11995,7 +11937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
@@ -12006,7 +11948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -12014,7 +11956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -12025,7 +11967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -12036,7 +11978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -12044,7 +11986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
@@ -12055,7 +11997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>75</v>
       </c>
@@ -12063,7 +12005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>76</v>
       </c>
@@ -12071,7 +12013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
@@ -12079,7 +12021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>27</v>
       </c>
@@ -12087,7 +12029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>28</v>
       </c>
@@ -12095,7 +12037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>29</v>
       </c>
@@ -12103,7 +12045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
@@ -12111,7 +12053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
@@ -12119,7 +12061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
@@ -12127,7 +12069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
@@ -12135,7 +12077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
@@ -12146,7 +12088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>36</v>
       </c>
@@ -12154,7 +12096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>37</v>
       </c>
@@ -12162,7 +12104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
@@ -12173,7 +12115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
@@ -12181,7 +12123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>39</v>
       </c>
@@ -12189,7 +12131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>40</v>
       </c>
@@ -12197,7 +12139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>41</v>
       </c>
@@ -12205,7 +12147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
@@ -12213,7 +12155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>43</v>
       </c>
@@ -12221,7 +12163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
@@ -12229,7 +12171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>80</v>
       </c>
@@ -12237,7 +12179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
@@ -12245,7 +12187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
@@ -12253,7 +12195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>47</v>
       </c>
@@ -12261,7 +12203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>48</v>
       </c>
@@ -12269,7 +12211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>49</v>
       </c>
@@ -12280,7 +12222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
@@ -12288,7 +12230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>50</v>
       </c>
@@ -12309,12 +12251,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -12328,7 +12270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -12342,7 +12284,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -12356,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12383,12 +12325,12 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -12397,7 +12339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
@@ -12408,7 +12350,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
@@ -12419,7 +12361,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -12430,7 +12372,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -12454,12 +12396,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12473,7 +12415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12488,7 +12430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
@@ -12505,7 +12447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>2</v>
@@ -12522,7 +12464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12539,7 +12481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12556,7 +12498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12573,7 +12515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12590,7 +12532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12607,7 +12549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12624,7 +12566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12641,7 +12583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12658,7 +12600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12675,7 +12617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12692,7 +12634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12709,7 +12651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12726,7 +12668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12743,7 +12685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12760,7 +12702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12777,7 +12719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12794,7 +12736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -12811,7 +12753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -12828,7 +12770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -12845,7 +12787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -12862,7 +12804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -12879,7 +12821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -12896,7 +12838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12913,7 +12855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -12930,7 +12872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -12947,7 +12889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -12964,7 +12906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -12981,7 +12923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -12998,7 +12940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -13015,7 +12957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -13032,7 +12974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -13049,7 +12991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -13066,7 +13008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -13083,7 +13025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -13100,7 +13042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -13117,7 +13059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -13134,7 +13076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -13151,7 +13093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
